--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T94"/>
+  <dimension ref="A1:T95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6482,6 +6482,70 @@
         <v>23.75396517373109</v>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-08</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>303</v>
+      </c>
+      <c r="C95" t="n">
+        <v>389</v>
+      </c>
+      <c r="D95" t="n">
+        <v>68</v>
+      </c>
+      <c r="E95" t="n">
+        <v>145</v>
+      </c>
+      <c r="F95" t="n">
+        <v>186</v>
+      </c>
+      <c r="G95" t="n">
+        <v>51</v>
+      </c>
+      <c r="H95" t="n">
+        <v>14</v>
+      </c>
+      <c r="I95" t="n">
+        <v>60</v>
+      </c>
+      <c r="J95" t="n">
+        <v>45</v>
+      </c>
+      <c r="K95" t="n">
+        <v>738</v>
+      </c>
+      <c r="L95" t="n">
+        <v>103</v>
+      </c>
+      <c r="M95" t="n">
+        <v>171</v>
+      </c>
+      <c r="N95" t="n">
+        <v>39</v>
+      </c>
+      <c r="O95" t="n">
+        <v>56.32206323632897</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5.09837996025</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>41.3722718384625</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2.396193771626298</v>
+      </c>
+      <c r="S95" t="n">
+        <v>18.98477157360406</v>
+      </c>
+      <c r="T95" t="n">
+        <v>23.03114304374119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T95"/>
+  <dimension ref="A1:T96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6546,6 +6546,70 @@
         <v>23.03114304374119</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>303</v>
+      </c>
+      <c r="C96" t="n">
+        <v>391</v>
+      </c>
+      <c r="D96" t="n">
+        <v>56</v>
+      </c>
+      <c r="E96" t="n">
+        <v>137</v>
+      </c>
+      <c r="F96" t="n">
+        <v>188</v>
+      </c>
+      <c r="G96" t="n">
+        <v>50</v>
+      </c>
+      <c r="H96" t="n">
+        <v>14</v>
+      </c>
+      <c r="I96" t="n">
+        <v>77</v>
+      </c>
+      <c r="J96" t="n">
+        <v>47</v>
+      </c>
+      <c r="K96" t="n">
+        <v>660</v>
+      </c>
+      <c r="L96" t="n">
+        <v>117</v>
+      </c>
+      <c r="M96" t="n">
+        <v>189</v>
+      </c>
+      <c r="N96" t="n">
+        <v>49</v>
+      </c>
+      <c r="O96" t="n">
+        <v>56.54446719374467</v>
+      </c>
+      <c r="P96" t="n">
+        <v>6.46243852025</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>34.9188325061625</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2.445127304653205</v>
+      </c>
+      <c r="S96" t="n">
+        <v>22.42105263157895</v>
+      </c>
+      <c r="T96" t="n">
+        <v>24.17522653313707</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T96"/>
+  <dimension ref="A1:T97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6610,6 +6610,70 @@
         <v>24.17522653313707</v>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-13</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>310</v>
+      </c>
+      <c r="C97" t="n">
+        <v>385</v>
+      </c>
+      <c r="D97" t="n">
+        <v>53</v>
+      </c>
+      <c r="E97" t="n">
+        <v>130</v>
+      </c>
+      <c r="F97" t="n">
+        <v>188</v>
+      </c>
+      <c r="G97" t="n">
+        <v>52</v>
+      </c>
+      <c r="H97" t="n">
+        <v>16</v>
+      </c>
+      <c r="I97" t="n">
+        <v>81</v>
+      </c>
+      <c r="J97" t="n">
+        <v>44</v>
+      </c>
+      <c r="K97" t="n">
+        <v>659</v>
+      </c>
+      <c r="L97" t="n">
+        <v>112</v>
+      </c>
+      <c r="M97" t="n">
+        <v>189</v>
+      </c>
+      <c r="N97" t="n">
+        <v>49</v>
+      </c>
+      <c r="O97" t="n">
+        <v>57.76000406382636</v>
+      </c>
+      <c r="P97" t="n">
+        <v>6.868794606500001</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>36.2984927991125</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2.422398589065256</v>
+      </c>
+      <c r="S97" t="n">
+        <v>21.69312169312169</v>
+      </c>
+      <c r="T97" t="n">
+        <v>24.07459604928813</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T97"/>
+  <dimension ref="A1:T98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6674,6 +6674,70 @@
         <v>24.07459604928813</v>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>310</v>
+      </c>
+      <c r="C98" t="n">
+        <v>393</v>
+      </c>
+      <c r="D98" t="n">
+        <v>48</v>
+      </c>
+      <c r="E98" t="n">
+        <v>129</v>
+      </c>
+      <c r="F98" t="n">
+        <v>180</v>
+      </c>
+      <c r="G98" t="n">
+        <v>53</v>
+      </c>
+      <c r="H98" t="n">
+        <v>18</v>
+      </c>
+      <c r="I98" t="n">
+        <v>87</v>
+      </c>
+      <c r="J98" t="n">
+        <v>35</v>
+      </c>
+      <c r="K98" t="n">
+        <v>642</v>
+      </c>
+      <c r="L98" t="n">
+        <v>111</v>
+      </c>
+      <c r="M98" t="n">
+        <v>198</v>
+      </c>
+      <c r="N98" t="n">
+        <v>58</v>
+      </c>
+      <c r="O98" t="n">
+        <v>54.53404395260225</v>
+      </c>
+      <c r="P98" t="n">
+        <v>8.470799844</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>30.52487921577051</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2.429708222811671</v>
+      </c>
+      <c r="S98" t="n">
+        <v>21.86495176848875</v>
+      </c>
+      <c r="T98" t="n">
+        <v>24.27632749138618</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T98"/>
+  <dimension ref="A1:T99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6738,6 +6738,70 @@
         <v>24.27632749138618</v>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-21</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>314</v>
+      </c>
+      <c r="C99" t="n">
+        <v>388</v>
+      </c>
+      <c r="D99" t="n">
+        <v>53</v>
+      </c>
+      <c r="E99" t="n">
+        <v>124</v>
+      </c>
+      <c r="F99" t="n">
+        <v>185</v>
+      </c>
+      <c r="G99" t="n">
+        <v>59</v>
+      </c>
+      <c r="H99" t="n">
+        <v>18</v>
+      </c>
+      <c r="I99" t="n">
+        <v>76</v>
+      </c>
+      <c r="J99" t="n">
+        <v>44</v>
+      </c>
+      <c r="K99" t="n">
+        <v>703</v>
+      </c>
+      <c r="L99" t="n">
+        <v>94</v>
+      </c>
+      <c r="M99" t="n">
+        <v>178</v>
+      </c>
+      <c r="N99" t="n">
+        <v>46</v>
+      </c>
+      <c r="O99" t="n">
+        <v>56.41021189819993</v>
+      </c>
+      <c r="P99" t="n">
+        <v>7.289235723999999</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>35.34353123390611</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2.419807186678352</v>
+      </c>
+      <c r="S99" t="n">
+        <v>19.10695742471443</v>
+      </c>
+      <c r="T99" t="n">
+        <v>23.93650488485574</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T99"/>
+  <dimension ref="A1:T100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6802,6 +6802,70 @@
         <v>23.93650488485574</v>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>315</v>
+      </c>
+      <c r="C100" t="n">
+        <v>382</v>
+      </c>
+      <c r="D100" t="n">
+        <v>52</v>
+      </c>
+      <c r="E100" t="n">
+        <v>121</v>
+      </c>
+      <c r="F100" t="n">
+        <v>185</v>
+      </c>
+      <c r="G100" t="n">
+        <v>61</v>
+      </c>
+      <c r="H100" t="n">
+        <v>19</v>
+      </c>
+      <c r="I100" t="n">
+        <v>82</v>
+      </c>
+      <c r="J100" t="n">
+        <v>38</v>
+      </c>
+      <c r="K100" t="n">
+        <v>691</v>
+      </c>
+      <c r="L100" t="n">
+        <v>98</v>
+      </c>
+      <c r="M100" t="n">
+        <v>179</v>
+      </c>
+      <c r="N100" t="n">
+        <v>47</v>
+      </c>
+      <c r="O100" t="n">
+        <v>56.82574665292218</v>
+      </c>
+      <c r="P100" t="n">
+        <v>8.260529588999999</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>32.09413297425897</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2.426431718061674</v>
+      </c>
+      <c r="S100" t="n">
+        <v>19.14225941422594</v>
+      </c>
+      <c r="T100" t="n">
+        <v>23.92410842311488</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T100"/>
+  <dimension ref="A1:T101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6866,6 +6866,70 @@
         <v>23.92410842311488</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-25</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>315</v>
+      </c>
+      <c r="C101" t="n">
+        <v>387</v>
+      </c>
+      <c r="D101" t="n">
+        <v>44</v>
+      </c>
+      <c r="E101" t="n">
+        <v>126</v>
+      </c>
+      <c r="F101" t="n">
+        <v>183</v>
+      </c>
+      <c r="G101" t="n">
+        <v>60</v>
+      </c>
+      <c r="H101" t="n">
+        <v>19</v>
+      </c>
+      <c r="I101" t="n">
+        <v>88</v>
+      </c>
+      <c r="J101" t="n">
+        <v>45</v>
+      </c>
+      <c r="K101" t="n">
+        <v>683</v>
+      </c>
+      <c r="L101" t="n">
+        <v>95</v>
+      </c>
+      <c r="M101" t="n">
+        <v>179</v>
+      </c>
+      <c r="N101" t="n">
+        <v>44</v>
+      </c>
+      <c r="O101" t="n">
+        <v>55.64406459836174</v>
+      </c>
+      <c r="P101" t="n">
+        <v>8.846452375</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>32.79340208167276</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2.447089947089947</v>
+      </c>
+      <c r="S101" t="n">
+        <v>19.26701570680628</v>
+      </c>
+      <c r="T101" t="n">
+        <v>24.49938967590313</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T101"/>
+  <dimension ref="A1:T102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6930,6 +6930,70 @@
         <v>24.49938967590313</v>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-27</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>311</v>
+      </c>
+      <c r="C102" t="n">
+        <v>378</v>
+      </c>
+      <c r="D102" t="n">
+        <v>37</v>
+      </c>
+      <c r="E102" t="n">
+        <v>130</v>
+      </c>
+      <c r="F102" t="n">
+        <v>186</v>
+      </c>
+      <c r="G102" t="n">
+        <v>68</v>
+      </c>
+      <c r="H102" t="n">
+        <v>21</v>
+      </c>
+      <c r="I102" t="n">
+        <v>98</v>
+      </c>
+      <c r="J102" t="n">
+        <v>40</v>
+      </c>
+      <c r="K102" t="n">
+        <v>665</v>
+      </c>
+      <c r="L102" t="n">
+        <v>108</v>
+      </c>
+      <c r="M102" t="n">
+        <v>179</v>
+      </c>
+      <c r="N102" t="n">
+        <v>41</v>
+      </c>
+      <c r="O102" t="n">
+        <v>53.88759057863238</v>
+      </c>
+      <c r="P102" t="n">
+        <v>8.1822175425</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>32.25431839106932</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2.471264367816092</v>
+      </c>
+      <c r="S102" t="n">
+        <v>19.85294117647059</v>
+      </c>
+      <c r="T102" t="n">
+        <v>25.40238762713577</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T102"/>
+  <dimension ref="A1:T103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6994,6 +6994,70 @@
         <v>25.40238762713577</v>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-29</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>321</v>
+      </c>
+      <c r="C103" t="n">
+        <v>384</v>
+      </c>
+      <c r="D103" t="n">
+        <v>37</v>
+      </c>
+      <c r="E103" t="n">
+        <v>122</v>
+      </c>
+      <c r="F103" t="n">
+        <v>181</v>
+      </c>
+      <c r="G103" t="n">
+        <v>69</v>
+      </c>
+      <c r="H103" t="n">
+        <v>21</v>
+      </c>
+      <c r="I103" t="n">
+        <v>95</v>
+      </c>
+      <c r="J103" t="n">
+        <v>39</v>
+      </c>
+      <c r="K103" t="n">
+        <v>665</v>
+      </c>
+      <c r="L103" t="n">
+        <v>89</v>
+      </c>
+      <c r="M103" t="n">
+        <v>195</v>
+      </c>
+      <c r="N103" t="n">
+        <v>52</v>
+      </c>
+      <c r="O103" t="n">
+        <v>54.27281263204527</v>
+      </c>
+      <c r="P103" t="n">
+        <v>8.308848191499999</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>31.90425139796586</v>
+      </c>
+      <c r="R103" t="n">
+        <v>2.490748898678414</v>
+      </c>
+      <c r="S103" t="n">
+        <v>19.14893617021277</v>
+      </c>
+      <c r="T103" t="n">
+        <v>24.78543211963787</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T103"/>
+  <dimension ref="A1:T104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7058,6 +7058,70 @@
         <v>24.78543211963787</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>332</v>
+      </c>
+      <c r="C104" t="n">
+        <v>418</v>
+      </c>
+      <c r="D104" t="n">
+        <v>39</v>
+      </c>
+      <c r="E104" t="n">
+        <v>123</v>
+      </c>
+      <c r="F104" t="n">
+        <v>133</v>
+      </c>
+      <c r="G104" t="n">
+        <v>61</v>
+      </c>
+      <c r="H104" t="n">
+        <v>24</v>
+      </c>
+      <c r="I104" t="n">
+        <v>72</v>
+      </c>
+      <c r="J104" t="n">
+        <v>41</v>
+      </c>
+      <c r="K104" t="n">
+        <v>666</v>
+      </c>
+      <c r="L104" t="n">
+        <v>97</v>
+      </c>
+      <c r="M104" t="n">
+        <v>202</v>
+      </c>
+      <c r="N104" t="n">
+        <v>52</v>
+      </c>
+      <c r="O104" t="n">
+        <v>53.38696770497263</v>
+      </c>
+      <c r="P104" t="n">
+        <v>6.1451122225</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>34.79123029407393</v>
+      </c>
+      <c r="R104" t="n">
+        <v>2.430973451327433</v>
+      </c>
+      <c r="S104" t="n">
+        <v>20.47413793103448</v>
+      </c>
+      <c r="T104" t="n">
+        <v>22.51217465192213</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T104"/>
+  <dimension ref="A1:T105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7122,6 +7122,70 @@
         <v>22.51217465192213</v>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-05</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>344</v>
+      </c>
+      <c r="C105" t="n">
+        <v>401</v>
+      </c>
+      <c r="D105" t="n">
+        <v>35</v>
+      </c>
+      <c r="E105" t="n">
+        <v>130</v>
+      </c>
+      <c r="F105" t="n">
+        <v>127</v>
+      </c>
+      <c r="G105" t="n">
+        <v>60</v>
+      </c>
+      <c r="H105" t="n">
+        <v>23</v>
+      </c>
+      <c r="I105" t="n">
+        <v>77</v>
+      </c>
+      <c r="J105" t="n">
+        <v>43</v>
+      </c>
+      <c r="K105" t="n">
+        <v>658</v>
+      </c>
+      <c r="L105" t="n">
+        <v>90</v>
+      </c>
+      <c r="M105" t="n">
+        <v>203</v>
+      </c>
+      <c r="N105" t="n">
+        <v>49</v>
+      </c>
+      <c r="O105" t="n">
+        <v>54.2784460577288</v>
+      </c>
+      <c r="P105" t="n">
+        <v>7.5823216775</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>34.27223461185071</v>
+      </c>
+      <c r="R105" t="n">
+        <v>2.364285714285714</v>
+      </c>
+      <c r="S105" t="n">
+        <v>19.84732824427481</v>
+      </c>
+      <c r="T105" t="n">
+        <v>21.5444803387764</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T105"/>
+  <dimension ref="A1:T106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7186,6 +7186,70 @@
         <v>21.5444803387764</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>335</v>
+      </c>
+      <c r="C106" t="n">
+        <v>376</v>
+      </c>
+      <c r="D106" t="n">
+        <v>34</v>
+      </c>
+      <c r="E106" t="n">
+        <v>131</v>
+      </c>
+      <c r="F106" t="n">
+        <v>167</v>
+      </c>
+      <c r="G106" t="n">
+        <v>54</v>
+      </c>
+      <c r="H106" t="n">
+        <v>23</v>
+      </c>
+      <c r="I106" t="n">
+        <v>88</v>
+      </c>
+      <c r="J106" t="n">
+        <v>46</v>
+      </c>
+      <c r="K106" t="n">
+        <v>647</v>
+      </c>
+      <c r="L106" t="n">
+        <v>82</v>
+      </c>
+      <c r="M106" t="n">
+        <v>207</v>
+      </c>
+      <c r="N106" t="n">
+        <v>50</v>
+      </c>
+      <c r="O106" t="n">
+        <v>53.34462131515865</v>
+      </c>
+      <c r="P106" t="n">
+        <v>9.848064637499998</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>33.88836510042214</v>
+      </c>
+      <c r="R106" t="n">
+        <v>2.39375</v>
+      </c>
+      <c r="S106" t="n">
+        <v>19.49616648411829</v>
+      </c>
+      <c r="T106" t="n">
+        <v>23.38657462350351</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T106"/>
+  <dimension ref="A1:T107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7250,6 +7250,70 @@
         <v>23.38657462350351</v>
       </c>
     </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-12</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>344</v>
+      </c>
+      <c r="C107" t="n">
+        <v>404</v>
+      </c>
+      <c r="D107" t="n">
+        <v>31</v>
+      </c>
+      <c r="E107" t="n">
+        <v>141</v>
+      </c>
+      <c r="F107" t="n">
+        <v>125</v>
+      </c>
+      <c r="G107" t="n">
+        <v>46</v>
+      </c>
+      <c r="H107" t="n">
+        <v>24</v>
+      </c>
+      <c r="I107" t="n">
+        <v>68</v>
+      </c>
+      <c r="J107" t="n">
+        <v>42</v>
+      </c>
+      <c r="K107" t="n">
+        <v>663</v>
+      </c>
+      <c r="L107" t="n">
+        <v>90</v>
+      </c>
+      <c r="M107" t="n">
+        <v>198</v>
+      </c>
+      <c r="N107" t="n">
+        <v>54</v>
+      </c>
+      <c r="O107" t="n">
+        <v>54.67903825349843</v>
+      </c>
+      <c r="P107" t="n">
+        <v>7.006572917500001</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>38.06630888668444</v>
+      </c>
+      <c r="R107" t="n">
+        <v>2.354260089686099</v>
+      </c>
+      <c r="S107" t="n">
+        <v>20.2835332606325</v>
+      </c>
+      <c r="T107" t="n">
+        <v>21.77471452984497</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T107"/>
+  <dimension ref="A1:T108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7314,6 +7314,70 @@
         <v>21.77471452984497</v>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>342</v>
+      </c>
+      <c r="C108" t="n">
+        <v>367</v>
+      </c>
+      <c r="D108" t="n">
+        <v>38</v>
+      </c>
+      <c r="E108" t="n">
+        <v>150</v>
+      </c>
+      <c r="F108" t="n">
+        <v>168</v>
+      </c>
+      <c r="G108" t="n">
+        <v>40</v>
+      </c>
+      <c r="H108" t="n">
+        <v>22</v>
+      </c>
+      <c r="I108" t="n">
+        <v>75</v>
+      </c>
+      <c r="J108" t="n">
+        <v>36</v>
+      </c>
+      <c r="K108" t="n">
+        <v>605</v>
+      </c>
+      <c r="L108" t="n">
+        <v>96</v>
+      </c>
+      <c r="M108" t="n">
+        <v>278</v>
+      </c>
+      <c r="N108" t="n">
+        <v>37</v>
+      </c>
+      <c r="O108" t="n">
+        <v>54.22037997379512</v>
+      </c>
+      <c r="P108" t="n">
+        <v>9.024451107499999</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>32.38847901852111</v>
+      </c>
+      <c r="R108" t="n">
+        <v>2.333629103815439</v>
+      </c>
+      <c r="S108" t="n">
+        <v>19.9057714958775</v>
+      </c>
+      <c r="T108" t="n">
+        <v>22.49256956032594</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T108"/>
+  <dimension ref="A1:T109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7378,6 +7378,70 @@
         <v>22.49256956032594</v>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-16</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>342</v>
+      </c>
+      <c r="C109" t="n">
+        <v>370</v>
+      </c>
+      <c r="D109" t="n">
+        <v>35</v>
+      </c>
+      <c r="E109" t="n">
+        <v>148</v>
+      </c>
+      <c r="F109" t="n">
+        <v>167</v>
+      </c>
+      <c r="G109" t="n">
+        <v>40</v>
+      </c>
+      <c r="H109" t="n">
+        <v>23</v>
+      </c>
+      <c r="I109" t="n">
+        <v>78</v>
+      </c>
+      <c r="J109" t="n">
+        <v>37</v>
+      </c>
+      <c r="K109" t="n">
+        <v>578</v>
+      </c>
+      <c r="L109" t="n">
+        <v>90</v>
+      </c>
+      <c r="M109" t="n">
+        <v>305</v>
+      </c>
+      <c r="N109" t="n">
+        <v>37</v>
+      </c>
+      <c r="O109" t="n">
+        <v>54.7263522472211</v>
+      </c>
+      <c r="P109" t="n">
+        <v>9.297396789999999</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>32.24237080562889</v>
+      </c>
+      <c r="R109" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="S109" t="n">
+        <v>20</v>
+      </c>
+      <c r="T109" t="n">
+        <v>22.79027432772607</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T109"/>
+  <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7442,6 +7442,70 @@
         <v>22.79027432772607</v>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-18</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>339</v>
+      </c>
+      <c r="C110" t="n">
+        <v>405</v>
+      </c>
+      <c r="D110" t="n">
+        <v>33</v>
+      </c>
+      <c r="E110" t="n">
+        <v>145</v>
+      </c>
+      <c r="F110" t="n">
+        <v>136</v>
+      </c>
+      <c r="G110" t="n">
+        <v>37</v>
+      </c>
+      <c r="H110" t="n">
+        <v>23</v>
+      </c>
+      <c r="I110" t="n">
+        <v>75</v>
+      </c>
+      <c r="J110" t="n">
+        <v>46</v>
+      </c>
+      <c r="K110" t="n">
+        <v>559</v>
+      </c>
+      <c r="L110" t="n">
+        <v>84</v>
+      </c>
+      <c r="M110" t="n">
+        <v>324</v>
+      </c>
+      <c r="N110" t="n">
+        <v>30</v>
+      </c>
+      <c r="O110" t="n">
+        <v>56.15388130102299</v>
+      </c>
+      <c r="P110" t="n">
+        <v>8.7348723925</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>34.24348618984001</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2.385509838998211</v>
+      </c>
+      <c r="S110" t="n">
+        <v>20.15113350125945</v>
+      </c>
+      <c r="T110" t="n">
+        <v>22.25352357877245</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T110"/>
+  <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7506,6 +7506,70 @@
         <v>22.25352357877245</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-19</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>341</v>
+      </c>
+      <c r="C111" t="n">
+        <v>399</v>
+      </c>
+      <c r="D111" t="n">
+        <v>33</v>
+      </c>
+      <c r="E111" t="n">
+        <v>149</v>
+      </c>
+      <c r="F111" t="n">
+        <v>135</v>
+      </c>
+      <c r="G111" t="n">
+        <v>37</v>
+      </c>
+      <c r="H111" t="n">
+        <v>23</v>
+      </c>
+      <c r="I111" t="n">
+        <v>77</v>
+      </c>
+      <c r="J111" t="n">
+        <v>46</v>
+      </c>
+      <c r="K111" t="n">
+        <v>559</v>
+      </c>
+      <c r="L111" t="n">
+        <v>79</v>
+      </c>
+      <c r="M111" t="n">
+        <v>326</v>
+      </c>
+      <c r="N111" t="n">
+        <v>30</v>
+      </c>
+      <c r="O111" t="n">
+        <v>57.08498590443221</v>
+      </c>
+      <c r="P111" t="n">
+        <v>7.5039710925</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>34.40868157024</v>
+      </c>
+      <c r="R111" t="n">
+        <v>2.388540734109221</v>
+      </c>
+      <c r="S111" t="n">
+        <v>19.59544879898862</v>
+      </c>
+      <c r="T111" t="n">
+        <v>21.98309398093867</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T111"/>
+  <dimension ref="A1:T112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7570,6 +7570,70 @@
         <v>21.98309398093867</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>337</v>
+      </c>
+      <c r="C112" t="n">
+        <v>374</v>
+      </c>
+      <c r="D112" t="n">
+        <v>34</v>
+      </c>
+      <c r="E112" t="n">
+        <v>146</v>
+      </c>
+      <c r="F112" t="n">
+        <v>171</v>
+      </c>
+      <c r="G112" t="n">
+        <v>36</v>
+      </c>
+      <c r="H112" t="n">
+        <v>22</v>
+      </c>
+      <c r="I112" t="n">
+        <v>88</v>
+      </c>
+      <c r="J112" t="n">
+        <v>44</v>
+      </c>
+      <c r="K112" t="n">
+        <v>562</v>
+      </c>
+      <c r="L112" t="n">
+        <v>81</v>
+      </c>
+      <c r="M112" t="n">
+        <v>318</v>
+      </c>
+      <c r="N112" t="n">
+        <v>27</v>
+      </c>
+      <c r="O112" t="n">
+        <v>57.06584484764065</v>
+      </c>
+      <c r="P112" t="n">
+        <v>8.10883218</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>31.86290711706</v>
+      </c>
+      <c r="R112" t="n">
+        <v>2.369642857142857</v>
+      </c>
+      <c r="S112" t="n">
+        <v>18.95261845386534</v>
+      </c>
+      <c r="T112" t="n">
+        <v>23.32391461454819</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T112"/>
+  <dimension ref="A1:T113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7634,6 +7634,70 @@
         <v>23.32391461454819</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-26</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>335</v>
+      </c>
+      <c r="C113" t="n">
+        <v>399</v>
+      </c>
+      <c r="D113" t="n">
+        <v>24</v>
+      </c>
+      <c r="E113" t="n">
+        <v>157</v>
+      </c>
+      <c r="F113" t="n">
+        <v>137</v>
+      </c>
+      <c r="G113" t="n">
+        <v>35</v>
+      </c>
+      <c r="H113" t="n">
+        <v>22</v>
+      </c>
+      <c r="I113" t="n">
+        <v>77</v>
+      </c>
+      <c r="J113" t="n">
+        <v>39</v>
+      </c>
+      <c r="K113" t="n">
+        <v>531</v>
+      </c>
+      <c r="L113" t="n">
+        <v>94</v>
+      </c>
+      <c r="M113" t="n">
+        <v>342</v>
+      </c>
+      <c r="N113" t="n">
+        <v>26</v>
+      </c>
+      <c r="O113" t="n">
+        <v>60.00099893513836</v>
+      </c>
+      <c r="P113" t="n">
+        <v>8.741025137499999</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>35.02576440486</v>
+      </c>
+      <c r="R113" t="n">
+        <v>2.377817853922453</v>
+      </c>
+      <c r="S113" t="n">
+        <v>20.73011734028683</v>
+      </c>
+      <c r="T113" t="n">
+        <v>22.93965749294764</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T113"/>
+  <dimension ref="A1:T114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7698,6 +7698,70 @@
         <v>22.93965749294764</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>333</v>
+      </c>
+      <c r="C114" t="n">
+        <v>374</v>
+      </c>
+      <c r="D114" t="n">
+        <v>45</v>
+      </c>
+      <c r="E114" t="n">
+        <v>146</v>
+      </c>
+      <c r="F114" t="n">
+        <v>170</v>
+      </c>
+      <c r="G114" t="n">
+        <v>40</v>
+      </c>
+      <c r="H114" t="n">
+        <v>22</v>
+      </c>
+      <c r="I114" t="n">
+        <v>66</v>
+      </c>
+      <c r="J114" t="n">
+        <v>46</v>
+      </c>
+      <c r="K114" t="n">
+        <v>579</v>
+      </c>
+      <c r="L114" t="n">
+        <v>101</v>
+      </c>
+      <c r="M114" t="n">
+        <v>306</v>
+      </c>
+      <c r="N114" t="n">
+        <v>32</v>
+      </c>
+      <c r="O114" t="n">
+        <v>60.03921806100585</v>
+      </c>
+      <c r="P114" t="n">
+        <v>7.12351333</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>38.13386862006001</v>
+      </c>
+      <c r="R114" t="n">
+        <v>2.353982300884956</v>
+      </c>
+      <c r="S114" t="n">
+        <v>21.72330097087379</v>
+      </c>
+      <c r="T114" t="n">
+        <v>22.56325139884147</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T114"/>
+  <dimension ref="A1:T115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7762,6 +7762,70 @@
         <v>22.56325139884147</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>356</v>
+      </c>
+      <c r="C115" t="n">
+        <v>392</v>
+      </c>
+      <c r="D115" t="n">
+        <v>44</v>
+      </c>
+      <c r="E115" t="n">
+        <v>127</v>
+      </c>
+      <c r="F115" t="n">
+        <v>132</v>
+      </c>
+      <c r="G115" t="n">
+        <v>57</v>
+      </c>
+      <c r="H115" t="n">
+        <v>23</v>
+      </c>
+      <c r="I115" t="n">
+        <v>64</v>
+      </c>
+      <c r="J115" t="n">
+        <v>37</v>
+      </c>
+      <c r="K115" t="n">
+        <v>585</v>
+      </c>
+      <c r="L115" t="n">
+        <v>105</v>
+      </c>
+      <c r="M115" t="n">
+        <v>313</v>
+      </c>
+      <c r="N115" t="n">
+        <v>27</v>
+      </c>
+      <c r="O115" t="n">
+        <v>57.47768326693572</v>
+      </c>
+      <c r="P115" t="n">
+        <v>7.854335742500001</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>40.02925450716</v>
+      </c>
+      <c r="R115" t="n">
+        <v>2.325375773651636</v>
+      </c>
+      <c r="S115" t="n">
+        <v>20.66014669926651</v>
+      </c>
+      <c r="T115" t="n">
+        <v>20.43004272172989</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T115"/>
+  <dimension ref="A1:T116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7826,6 +7826,70 @@
         <v>20.43004272172989</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-06</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>356</v>
+      </c>
+      <c r="C116" t="n">
+        <v>359</v>
+      </c>
+      <c r="D116" t="n">
+        <v>40</v>
+      </c>
+      <c r="E116" t="n">
+        <v>136</v>
+      </c>
+      <c r="F116" t="n">
+        <v>162</v>
+      </c>
+      <c r="G116" t="n">
+        <v>53</v>
+      </c>
+      <c r="H116" t="n">
+        <v>21</v>
+      </c>
+      <c r="I116" t="n">
+        <v>77</v>
+      </c>
+      <c r="J116" t="n">
+        <v>33</v>
+      </c>
+      <c r="K116" t="n">
+        <v>581</v>
+      </c>
+      <c r="L116" t="n">
+        <v>104</v>
+      </c>
+      <c r="M116" t="n">
+        <v>302</v>
+      </c>
+      <c r="N116" t="n">
+        <v>30</v>
+      </c>
+      <c r="O116" t="n">
+        <v>57.93617896853156</v>
+      </c>
+      <c r="P116" t="n">
+        <v>7.701661071249999</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>38.91903791676</v>
+      </c>
+      <c r="R116" t="n">
+        <v>2.315882874889086</v>
+      </c>
+      <c r="S116" t="n">
+        <v>20.24242424242424</v>
+      </c>
+      <c r="T116" t="n">
+        <v>21.34072117343164</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T116"/>
+  <dimension ref="A1:T117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7890,6 +7890,70 @@
         <v>21.34072117343164</v>
       </c>
     </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-08</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>358</v>
+      </c>
+      <c r="C117" t="n">
+        <v>355</v>
+      </c>
+      <c r="D117" t="n">
+        <v>37</v>
+      </c>
+      <c r="E117" t="n">
+        <v>160</v>
+      </c>
+      <c r="F117" t="n">
+        <v>135</v>
+      </c>
+      <c r="G117" t="n">
+        <v>53</v>
+      </c>
+      <c r="H117" t="n">
+        <v>22</v>
+      </c>
+      <c r="I117" t="n">
+        <v>69</v>
+      </c>
+      <c r="J117" t="n">
+        <v>43</v>
+      </c>
+      <c r="K117" t="n">
+        <v>560</v>
+      </c>
+      <c r="L117" t="n">
+        <v>98</v>
+      </c>
+      <c r="M117" t="n">
+        <v>317</v>
+      </c>
+      <c r="N117" t="n">
+        <v>33</v>
+      </c>
+      <c r="O117" t="n">
+        <v>56.98480708257163</v>
+      </c>
+      <c r="P117" t="n">
+        <v>7.8211052575</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>37.92126738876</v>
+      </c>
+      <c r="R117" t="n">
+        <v>2.349107142857143</v>
+      </c>
+      <c r="S117" t="n">
+        <v>21.66874221668742</v>
+      </c>
+      <c r="T117" t="n">
+        <v>20.04392539898477</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T117"/>
+  <dimension ref="A1:T118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7954,6 +7954,70 @@
         <v>20.04392539898477</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-09</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>358</v>
+      </c>
+      <c r="C118" t="n">
+        <v>354</v>
+      </c>
+      <c r="D118" t="n">
+        <v>36</v>
+      </c>
+      <c r="E118" t="n">
+        <v>162</v>
+      </c>
+      <c r="F118" t="n">
+        <v>129</v>
+      </c>
+      <c r="G118" t="n">
+        <v>56</v>
+      </c>
+      <c r="H118" t="n">
+        <v>25</v>
+      </c>
+      <c r="I118" t="n">
+        <v>73</v>
+      </c>
+      <c r="J118" t="n">
+        <v>42</v>
+      </c>
+      <c r="K118" t="n">
+        <v>556</v>
+      </c>
+      <c r="L118" t="n">
+        <v>100</v>
+      </c>
+      <c r="M118" t="n">
+        <v>317</v>
+      </c>
+      <c r="N118" t="n">
+        <v>32</v>
+      </c>
+      <c r="O118" t="n">
+        <v>56.88338560557099</v>
+      </c>
+      <c r="P118" t="n">
+        <v>7.982183742499999</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>37.81651937876001</v>
+      </c>
+      <c r="R118" t="n">
+        <v>2.33125</v>
+      </c>
+      <c r="S118" t="n">
+        <v>21.66874221668742</v>
+      </c>
+      <c r="T118" t="n">
+        <v>19.97172706991467</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T118"/>
+  <dimension ref="A1:T119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8018,6 +8018,70 @@
         <v>19.97172706991467</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-13</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>357</v>
+      </c>
+      <c r="C119" t="n">
+        <v>330</v>
+      </c>
+      <c r="D119" t="n">
+        <v>36</v>
+      </c>
+      <c r="E119" t="n">
+        <v>158</v>
+      </c>
+      <c r="F119" t="n">
+        <v>158</v>
+      </c>
+      <c r="G119" t="n">
+        <v>50</v>
+      </c>
+      <c r="H119" t="n">
+        <v>23</v>
+      </c>
+      <c r="I119" t="n">
+        <v>87</v>
+      </c>
+      <c r="J119" t="n">
+        <v>42</v>
+      </c>
+      <c r="K119" t="n">
+        <v>547</v>
+      </c>
+      <c r="L119" t="n">
+        <v>93</v>
+      </c>
+      <c r="M119" t="n">
+        <v>307</v>
+      </c>
+      <c r="N119" t="n">
+        <v>36</v>
+      </c>
+      <c r="O119" t="n">
+        <v>56.68074026759447</v>
+      </c>
+      <c r="P119" t="n">
+        <v>8.722101929999999</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>36.72956472156</v>
+      </c>
+      <c r="R119" t="n">
+        <v>2.330935251798561</v>
+      </c>
+      <c r="S119" t="n">
+        <v>21.24223602484472</v>
+      </c>
+      <c r="T119" t="n">
+        <v>20.94467532214025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T119"/>
+  <dimension ref="A1:T120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8082,6 +8082,70 @@
         <v>20.94467532214025</v>
       </c>
     </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-15</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>354</v>
+      </c>
+      <c r="C120" t="n">
+        <v>363</v>
+      </c>
+      <c r="D120" t="n">
+        <v>35</v>
+      </c>
+      <c r="E120" t="n">
+        <v>154</v>
+      </c>
+      <c r="F120" t="n">
+        <v>130</v>
+      </c>
+      <c r="G120" t="n">
+        <v>52</v>
+      </c>
+      <c r="H120" t="n">
+        <v>21</v>
+      </c>
+      <c r="I120" t="n">
+        <v>67</v>
+      </c>
+      <c r="J120" t="n">
+        <v>45</v>
+      </c>
+      <c r="K120" t="n">
+        <v>599</v>
+      </c>
+      <c r="L120" t="n">
+        <v>90</v>
+      </c>
+      <c r="M120" t="n">
+        <v>271</v>
+      </c>
+      <c r="N120" t="n">
+        <v>37</v>
+      </c>
+      <c r="O120" t="n">
+        <v>55.8861271887053</v>
+      </c>
+      <c r="P120" t="n">
+        <v>7.180655921250001</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>37.0352558135</v>
+      </c>
+      <c r="R120" t="n">
+        <v>2.340847610459874</v>
+      </c>
+      <c r="S120" t="n">
+        <v>20.52505966587112</v>
+      </c>
+      <c r="T120" t="n">
+        <v>20.22987650283685</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T120"/>
+  <dimension ref="A1:T121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8146,6 +8146,70 @@
         <v>20.22987650283685</v>
       </c>
     </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-16</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>359</v>
+      </c>
+      <c r="C121" t="n">
+        <v>366</v>
+      </c>
+      <c r="D121" t="n">
+        <v>33</v>
+      </c>
+      <c r="E121" t="n">
+        <v>151</v>
+      </c>
+      <c r="F121" t="n">
+        <v>129</v>
+      </c>
+      <c r="G121" t="n">
+        <v>50</v>
+      </c>
+      <c r="H121" t="n">
+        <v>19</v>
+      </c>
+      <c r="I121" t="n">
+        <v>67</v>
+      </c>
+      <c r="J121" t="n">
+        <v>49</v>
+      </c>
+      <c r="K121" t="n">
+        <v>596</v>
+      </c>
+      <c r="L121" t="n">
+        <v>83</v>
+      </c>
+      <c r="M121" t="n">
+        <v>272</v>
+      </c>
+      <c r="N121" t="n">
+        <v>40</v>
+      </c>
+      <c r="O121" t="n">
+        <v>56.58456788335548</v>
+      </c>
+      <c r="P121" t="n">
+        <v>6.220668084999999</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>36.9907314955</v>
+      </c>
+      <c r="R121" t="n">
+        <v>2.336043360433604</v>
+      </c>
+      <c r="S121" t="n">
+        <v>20.59880239520958</v>
+      </c>
+      <c r="T121" t="n">
+        <v>20.15247890353143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T121"/>
+  <dimension ref="A1:T122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8210,6 +8210,70 @@
         <v>20.15247890353143</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>355</v>
+      </c>
+      <c r="C122" t="n">
+        <v>334</v>
+      </c>
+      <c r="D122" t="n">
+        <v>51</v>
+      </c>
+      <c r="E122" t="n">
+        <v>153</v>
+      </c>
+      <c r="F122" t="n">
+        <v>155</v>
+      </c>
+      <c r="G122" t="n">
+        <v>53</v>
+      </c>
+      <c r="H122" t="n">
+        <v>20</v>
+      </c>
+      <c r="I122" t="n">
+        <v>76</v>
+      </c>
+      <c r="J122" t="n">
+        <v>60</v>
+      </c>
+      <c r="K122" t="n">
+        <v>600</v>
+      </c>
+      <c r="L122" t="n">
+        <v>94</v>
+      </c>
+      <c r="M122" t="n">
+        <v>267</v>
+      </c>
+      <c r="N122" t="n">
+        <v>24</v>
+      </c>
+      <c r="O122" t="n">
+        <v>57.35118192021936</v>
+      </c>
+      <c r="P122" t="n">
+        <v>6.761068705624999</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>35.8070401535</v>
+      </c>
+      <c r="R122" t="n">
+        <v>2.297056199821588</v>
+      </c>
+      <c r="S122" t="n">
+        <v>20.84309133489462</v>
+      </c>
+      <c r="T122" t="n">
+        <v>19.46818014838161</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T122"/>
+  <dimension ref="A1:T123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8274,6 +8274,70 @@
         <v>19.46818014838161</v>
       </c>
     </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>359</v>
+      </c>
+      <c r="C123" t="n">
+        <v>359</v>
+      </c>
+      <c r="D123" t="n">
+        <v>43</v>
+      </c>
+      <c r="E123" t="n">
+        <v>156</v>
+      </c>
+      <c r="F123" t="n">
+        <v>127</v>
+      </c>
+      <c r="G123" t="n">
+        <v>56</v>
+      </c>
+      <c r="H123" t="n">
+        <v>18</v>
+      </c>
+      <c r="I123" t="n">
+        <v>76</v>
+      </c>
+      <c r="J123" t="n">
+        <v>48</v>
+      </c>
+      <c r="K123" t="n">
+        <v>593</v>
+      </c>
+      <c r="L123" t="n">
+        <v>96</v>
+      </c>
+      <c r="M123" t="n">
+        <v>278</v>
+      </c>
+      <c r="N123" t="n">
+        <v>27</v>
+      </c>
+      <c r="O123" t="n">
+        <v>58.12594615482644</v>
+      </c>
+      <c r="P123" t="n">
+        <v>7.026774805625</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>37.9135225475</v>
+      </c>
+      <c r="R123" t="n">
+        <v>2.287119856887299</v>
+      </c>
+      <c r="S123" t="n">
+        <v>20.35714285714286</v>
+      </c>
+      <c r="T123" t="n">
+        <v>19.04810590800833</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T123"/>
+  <dimension ref="A1:T124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8338,6 +8338,70 @@
         <v>19.04810590800833</v>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>328</v>
+      </c>
+      <c r="C124" t="n">
+        <v>370</v>
+      </c>
+      <c r="D124" t="n">
+        <v>44</v>
+      </c>
+      <c r="E124" t="n">
+        <v>171</v>
+      </c>
+      <c r="F124" t="n">
+        <v>127</v>
+      </c>
+      <c r="G124" t="n">
+        <v>64</v>
+      </c>
+      <c r="H124" t="n">
+        <v>20</v>
+      </c>
+      <c r="I124" t="n">
+        <v>75</v>
+      </c>
+      <c r="J124" t="n">
+        <v>44</v>
+      </c>
+      <c r="K124" t="n">
+        <v>565</v>
+      </c>
+      <c r="L124" t="n">
+        <v>103</v>
+      </c>
+      <c r="M124" t="n">
+        <v>310</v>
+      </c>
+      <c r="N124" t="n">
+        <v>27</v>
+      </c>
+      <c r="O124" t="n">
+        <v>57.22388162209031</v>
+      </c>
+      <c r="P124" t="n">
+        <v>8.6311031775</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>37.64525414946</v>
+      </c>
+      <c r="R124" t="n">
+        <v>2.293594306049822</v>
+      </c>
+      <c r="S124" t="n">
+        <v>21.37592137592138</v>
+      </c>
+      <c r="T124" t="n">
+        <v>20.45585867932175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T124"/>
+  <dimension ref="A1:T125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8402,6 +8402,70 @@
         <v>20.45585867932175</v>
       </c>
     </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>346</v>
+      </c>
+      <c r="C125" t="n">
+        <v>373</v>
+      </c>
+      <c r="D125" t="n">
+        <v>40</v>
+      </c>
+      <c r="E125" t="n">
+        <v>144</v>
+      </c>
+      <c r="F125" t="n">
+        <v>131</v>
+      </c>
+      <c r="G125" t="n">
+        <v>68</v>
+      </c>
+      <c r="H125" t="n">
+        <v>17</v>
+      </c>
+      <c r="I125" t="n">
+        <v>75</v>
+      </c>
+      <c r="J125" t="n">
+        <v>51</v>
+      </c>
+      <c r="K125" t="n">
+        <v>571</v>
+      </c>
+      <c r="L125" t="n">
+        <v>98</v>
+      </c>
+      <c r="M125" t="n">
+        <v>296</v>
+      </c>
+      <c r="N125" t="n">
+        <v>28</v>
+      </c>
+      <c r="O125" t="n">
+        <v>56.81615422321822</v>
+      </c>
+      <c r="P125" t="n">
+        <v>8.663332421250001</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>42.21833967646</v>
+      </c>
+      <c r="R125" t="n">
+        <v>2.300268096514746</v>
+      </c>
+      <c r="S125" t="n">
+        <v>21.50668286755772</v>
+      </c>
+      <c r="T125" t="n">
+        <v>20.25954079048674</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T125"/>
+  <dimension ref="A1:T126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8466,6 +8466,70 @@
         <v>20.25954079048674</v>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>348</v>
+      </c>
+      <c r="C126" t="n">
+        <v>371</v>
+      </c>
+      <c r="D126" t="n">
+        <v>39</v>
+      </c>
+      <c r="E126" t="n">
+        <v>154</v>
+      </c>
+      <c r="F126" t="n">
+        <v>137</v>
+      </c>
+      <c r="G126" t="n">
+        <v>55</v>
+      </c>
+      <c r="H126" t="n">
+        <v>17</v>
+      </c>
+      <c r="I126" t="n">
+        <v>72</v>
+      </c>
+      <c r="J126" t="n">
+        <v>56</v>
+      </c>
+      <c r="K126" t="n">
+        <v>547</v>
+      </c>
+      <c r="L126" t="n">
+        <v>96</v>
+      </c>
+      <c r="M126" t="n">
+        <v>320</v>
+      </c>
+      <c r="N126" t="n">
+        <v>30</v>
+      </c>
+      <c r="O126" t="n">
+        <v>56.53126287707651</v>
+      </c>
+      <c r="P126" t="n">
+        <v>7.305514163750001</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>41.35362619086</v>
+      </c>
+      <c r="R126" t="n">
+        <v>2.313113291703836</v>
+      </c>
+      <c r="S126" t="n">
+        <v>22.72159800249688</v>
+      </c>
+      <c r="T126" t="n">
+        <v>20.43595170459792</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T126"/>
+  <dimension ref="A1:T127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8530,6 +8530,70 @@
         <v>20.43595170459792</v>
       </c>
     </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>350</v>
+      </c>
+      <c r="C127" t="n">
+        <v>349</v>
+      </c>
+      <c r="D127" t="n">
+        <v>38</v>
+      </c>
+      <c r="E127" t="n">
+        <v>145</v>
+      </c>
+      <c r="F127" t="n">
+        <v>161</v>
+      </c>
+      <c r="G127" t="n">
+        <v>57</v>
+      </c>
+      <c r="H127" t="n">
+        <v>17</v>
+      </c>
+      <c r="I127" t="n">
+        <v>90</v>
+      </c>
+      <c r="J127" t="n">
+        <v>43</v>
+      </c>
+      <c r="K127" t="n">
+        <v>548</v>
+      </c>
+      <c r="L127" t="n">
+        <v>92</v>
+      </c>
+      <c r="M127" t="n">
+        <v>317</v>
+      </c>
+      <c r="N127" t="n">
+        <v>27</v>
+      </c>
+      <c r="O127" t="n">
+        <v>56.1267744159472</v>
+      </c>
+      <c r="P127" t="n">
+        <v>7.797680963750001</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>39.26247084694889</v>
+      </c>
+      <c r="R127" t="n">
+        <v>2.295434198746643</v>
+      </c>
+      <c r="S127" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="T127" t="n">
+        <v>21.2532411902131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T127"/>
+  <dimension ref="A1:T128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8594,6 +8594,70 @@
         <v>21.2532411902131</v>
       </c>
     </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>348</v>
+      </c>
+      <c r="C128" t="n">
+        <v>347</v>
+      </c>
+      <c r="D128" t="n">
+        <v>41</v>
+      </c>
+      <c r="E128" t="n">
+        <v>137</v>
+      </c>
+      <c r="F128" t="n">
+        <v>165</v>
+      </c>
+      <c r="G128" t="n">
+        <v>65</v>
+      </c>
+      <c r="H128" t="n">
+        <v>16</v>
+      </c>
+      <c r="I128" t="n">
+        <v>94</v>
+      </c>
+      <c r="J128" t="n">
+        <v>47</v>
+      </c>
+      <c r="K128" t="n">
+        <v>556</v>
+      </c>
+      <c r="L128" t="n">
+        <v>90</v>
+      </c>
+      <c r="M128" t="n">
+        <v>310</v>
+      </c>
+      <c r="N128" t="n">
+        <v>22</v>
+      </c>
+      <c r="O128" t="n">
+        <v>56.33385730678847</v>
+      </c>
+      <c r="P128" t="n">
+        <v>7.99260962375</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>42.49000566925999</v>
+      </c>
+      <c r="R128" t="n">
+        <v>2.315460232350313</v>
+      </c>
+      <c r="S128" t="n">
+        <v>19.65389369592089</v>
+      </c>
+      <c r="T128" t="n">
+        <v>21.2737889181627</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T128"/>
+  <dimension ref="A1:T129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8658,6 +8658,70 @@
         <v>21.2737889181627</v>
       </c>
     </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>339</v>
+      </c>
+      <c r="C129" t="n">
+        <v>394</v>
+      </c>
+      <c r="D129" t="n">
+        <v>36</v>
+      </c>
+      <c r="E129" t="n">
+        <v>140</v>
+      </c>
+      <c r="F129" t="n">
+        <v>123</v>
+      </c>
+      <c r="G129" t="n">
+        <v>68</v>
+      </c>
+      <c r="H129" t="n">
+        <v>19</v>
+      </c>
+      <c r="I129" t="n">
+        <v>89</v>
+      </c>
+      <c r="J129" t="n">
+        <v>43</v>
+      </c>
+      <c r="K129" t="n">
+        <v>551</v>
+      </c>
+      <c r="L129" t="n">
+        <v>82</v>
+      </c>
+      <c r="M129" t="n">
+        <v>324</v>
+      </c>
+      <c r="N129" t="n">
+        <v>30</v>
+      </c>
+      <c r="O129" t="n">
+        <v>56.31532792169454</v>
+      </c>
+      <c r="P129" t="n">
+        <v>6.79212827</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>45.08260706126</v>
+      </c>
+      <c r="R129" t="n">
+        <v>2.296693476318141</v>
+      </c>
+      <c r="S129" t="n">
+        <v>19.49685534591195</v>
+      </c>
+      <c r="T129" t="n">
+        <v>21.11067287635739</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T129"/>
+  <dimension ref="A1:T130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8722,6 +8722,70 @@
         <v>21.11067287635739</v>
       </c>
     </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>337</v>
+      </c>
+      <c r="C130" t="n">
+        <v>356</v>
+      </c>
+      <c r="D130" t="n">
+        <v>47</v>
+      </c>
+      <c r="E130" t="n">
+        <v>148</v>
+      </c>
+      <c r="F130" t="n">
+        <v>158</v>
+      </c>
+      <c r="G130" t="n">
+        <v>65</v>
+      </c>
+      <c r="H130" t="n">
+        <v>18</v>
+      </c>
+      <c r="I130" t="n">
+        <v>75</v>
+      </c>
+      <c r="J130" t="n">
+        <v>48</v>
+      </c>
+      <c r="K130" t="n">
+        <v>563</v>
+      </c>
+      <c r="L130" t="n">
+        <v>92</v>
+      </c>
+      <c r="M130" t="n">
+        <v>319</v>
+      </c>
+      <c r="N130" t="n">
+        <v>32</v>
+      </c>
+      <c r="O130" t="n">
+        <v>58.63691209291339</v>
+      </c>
+      <c r="P130" t="n">
+        <v>6.1573841825</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>45.93875736226</v>
+      </c>
+      <c r="R130" t="n">
+        <v>2.254207263064659</v>
+      </c>
+      <c r="S130" t="n">
+        <v>21.23456790123457</v>
+      </c>
+      <c r="T130" t="n">
+        <v>21.01048966362552</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T130"/>
+  <dimension ref="A1:T131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8786,6 +8786,70 @@
         <v>21.01048966362552</v>
       </c>
     </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>342</v>
+      </c>
+      <c r="C131" t="n">
+        <v>385</v>
+      </c>
+      <c r="D131" t="n">
+        <v>43</v>
+      </c>
+      <c r="E131" t="n">
+        <v>145</v>
+      </c>
+      <c r="F131" t="n">
+        <v>125</v>
+      </c>
+      <c r="G131" t="n">
+        <v>65</v>
+      </c>
+      <c r="H131" t="n">
+        <v>19</v>
+      </c>
+      <c r="I131" t="n">
+        <v>70</v>
+      </c>
+      <c r="J131" t="n">
+        <v>49</v>
+      </c>
+      <c r="K131" t="n">
+        <v>567</v>
+      </c>
+      <c r="L131" t="n">
+        <v>87</v>
+      </c>
+      <c r="M131" t="n">
+        <v>318</v>
+      </c>
+      <c r="N131" t="n">
+        <v>33</v>
+      </c>
+      <c r="O131" t="n">
+        <v>57.49212969287382</v>
+      </c>
+      <c r="P131" t="n">
+        <v>6.3349837925</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>46.41541486426</v>
+      </c>
+      <c r="R131" t="n">
+        <v>2.263345195729537</v>
+      </c>
+      <c r="S131" t="n">
+        <v>20.96774193548387</v>
+      </c>
+      <c r="T131" t="n">
+        <v>20.263341658643</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T131"/>
+  <dimension ref="A1:T132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8850,6 +8850,70 @@
         <v>20.263341658643</v>
       </c>
     </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-21</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>341</v>
+      </c>
+      <c r="C132" t="n">
+        <v>358</v>
+      </c>
+      <c r="D132" t="n">
+        <v>47</v>
+      </c>
+      <c r="E132" t="n">
+        <v>140</v>
+      </c>
+      <c r="F132" t="n">
+        <v>152</v>
+      </c>
+      <c r="G132" t="n">
+        <v>61</v>
+      </c>
+      <c r="H132" t="n">
+        <v>16</v>
+      </c>
+      <c r="I132" t="n">
+        <v>72</v>
+      </c>
+      <c r="J132" t="n">
+        <v>46</v>
+      </c>
+      <c r="K132" t="n">
+        <v>570</v>
+      </c>
+      <c r="L132" t="n">
+        <v>84</v>
+      </c>
+      <c r="M132" t="n">
+        <v>309</v>
+      </c>
+      <c r="N132" t="n">
+        <v>34</v>
+      </c>
+      <c r="O132" t="n">
+        <v>58.16231740536334</v>
+      </c>
+      <c r="P132" t="n">
+        <v>6.966345614999999</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>44.80234360561555</v>
+      </c>
+      <c r="R132" t="n">
+        <v>2.199103139013453</v>
+      </c>
+      <c r="S132" t="n">
+        <v>20.34739454094293</v>
+      </c>
+      <c r="T132" t="n">
+        <v>20.5021849424168</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T132"/>
+  <dimension ref="A1:T133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8914,6 +8914,70 @@
         <v>20.5021849424168</v>
       </c>
     </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-27</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>341</v>
+      </c>
+      <c r="C133" t="n">
+        <v>332</v>
+      </c>
+      <c r="D133" t="n">
+        <v>58</v>
+      </c>
+      <c r="E133" t="n">
+        <v>153</v>
+      </c>
+      <c r="F133" t="n">
+        <v>166</v>
+      </c>
+      <c r="G133" t="n">
+        <v>71</v>
+      </c>
+      <c r="H133" t="n">
+        <v>15</v>
+      </c>
+      <c r="I133" t="n">
+        <v>77</v>
+      </c>
+      <c r="J133" t="n">
+        <v>45</v>
+      </c>
+      <c r="K133" t="n">
+        <v>603</v>
+      </c>
+      <c r="L133" t="n">
+        <v>96</v>
+      </c>
+      <c r="M133" t="n">
+        <v>286</v>
+      </c>
+      <c r="N133" t="n">
+        <v>29</v>
+      </c>
+      <c r="O133" t="n">
+        <v>56.64827049460673</v>
+      </c>
+      <c r="P133" t="n">
+        <v>7.429402179999999</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>47.83960411226</v>
+      </c>
+      <c r="R133" t="n">
+        <v>2.196302816901408</v>
+      </c>
+      <c r="S133" t="n">
+        <v>20</v>
+      </c>
+      <c r="T133" t="n">
+        <v>19.69505932768848</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T133"/>
+  <dimension ref="A1:T134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8978,6 +8978,70 @@
         <v>19.69505932768848</v>
       </c>
     </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>340</v>
+      </c>
+      <c r="C134" t="n">
+        <v>335</v>
+      </c>
+      <c r="D134" t="n">
+        <v>58</v>
+      </c>
+      <c r="E134" t="n">
+        <v>167</v>
+      </c>
+      <c r="F134" t="n">
+        <v>166</v>
+      </c>
+      <c r="G134" t="n">
+        <v>63</v>
+      </c>
+      <c r="H134" t="n">
+        <v>14</v>
+      </c>
+      <c r="I134" t="n">
+        <v>76</v>
+      </c>
+      <c r="J134" t="n">
+        <v>47</v>
+      </c>
+      <c r="K134" t="n">
+        <v>607</v>
+      </c>
+      <c r="L134" t="n">
+        <v>92</v>
+      </c>
+      <c r="M134" t="n">
+        <v>292</v>
+      </c>
+      <c r="N134" t="n">
+        <v>29</v>
+      </c>
+      <c r="O134" t="n">
+        <v>55.53136495505394</v>
+      </c>
+      <c r="P134" t="n">
+        <v>5.855334340000001</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>47.02065423826</v>
+      </c>
+      <c r="R134" t="n">
+        <v>2.200349956255468</v>
+      </c>
+      <c r="S134" t="n">
+        <v>19.74148061104583</v>
+      </c>
+      <c r="T134" t="n">
+        <v>19.72710920626287</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T134"/>
+  <dimension ref="A1:T135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9042,6 +9042,70 @@
         <v>19.72710920626287</v>
       </c>
     </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-02</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>270</v>
+      </c>
+      <c r="C135" t="n">
+        <v>330</v>
+      </c>
+      <c r="D135" t="n">
+        <v>50</v>
+      </c>
+      <c r="E135" t="n">
+        <v>242</v>
+      </c>
+      <c r="F135" t="n">
+        <v>159</v>
+      </c>
+      <c r="G135" t="n">
+        <v>64</v>
+      </c>
+      <c r="H135" t="n">
+        <v>16</v>
+      </c>
+      <c r="I135" t="n">
+        <v>82</v>
+      </c>
+      <c r="J135" t="n">
+        <v>45</v>
+      </c>
+      <c r="K135" t="n">
+        <v>582</v>
+      </c>
+      <c r="L135" t="n">
+        <v>94</v>
+      </c>
+      <c r="M135" t="n">
+        <v>293</v>
+      </c>
+      <c r="N135" t="n">
+        <v>35</v>
+      </c>
+      <c r="O135" t="n">
+        <v>55.96172517815016</v>
+      </c>
+      <c r="P135" t="n">
+        <v>8.238944507500001</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>43.60124324626</v>
+      </c>
+      <c r="R135" t="n">
+        <v>2.171529619805482</v>
+      </c>
+      <c r="S135" t="n">
+        <v>20.763723150358</v>
+      </c>
+      <c r="T135" t="n">
+        <v>24.45327242534477</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T135"/>
+  <dimension ref="A1:T136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9106,6 +9106,70 @@
         <v>24.45327242534477</v>
       </c>
     </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>273</v>
+      </c>
+      <c r="C136" t="n">
+        <v>322</v>
+      </c>
+      <c r="D136" t="n">
+        <v>42</v>
+      </c>
+      <c r="E136" t="n">
+        <v>156</v>
+      </c>
+      <c r="F136" t="n">
+        <v>164</v>
+      </c>
+      <c r="G136" t="n">
+        <v>83</v>
+      </c>
+      <c r="H136" t="n">
+        <v>17</v>
+      </c>
+      <c r="I136" t="n">
+        <v>100</v>
+      </c>
+      <c r="J136" t="n">
+        <v>44</v>
+      </c>
+      <c r="K136" t="n">
+        <v>576</v>
+      </c>
+      <c r="L136" t="n">
+        <v>90</v>
+      </c>
+      <c r="M136" t="n">
+        <v>211</v>
+      </c>
+      <c r="N136" t="n">
+        <v>36</v>
+      </c>
+      <c r="O136" t="n">
+        <v>57.03693234356044</v>
+      </c>
+      <c r="P136" t="n">
+        <v>9.536608506250001</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>41.96629240169158</v>
+      </c>
+      <c r="R136" t="n">
+        <v>2.403027436140019</v>
+      </c>
+      <c r="S136" t="n">
+        <v>20.09456264775414</v>
+      </c>
+      <c r="T136" t="n">
+        <v>24.3133458470356</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T136"/>
+  <dimension ref="A1:T137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9170,6 +9170,70 @@
         <v>24.3133458470356</v>
       </c>
     </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-12</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>275</v>
+      </c>
+      <c r="C137" t="n">
+        <v>318</v>
+      </c>
+      <c r="D137" t="n">
+        <v>43</v>
+      </c>
+      <c r="E137" t="n">
+        <v>163</v>
+      </c>
+      <c r="F137" t="n">
+        <v>167</v>
+      </c>
+      <c r="G137" t="n">
+        <v>84</v>
+      </c>
+      <c r="H137" t="n">
+        <v>16</v>
+      </c>
+      <c r="I137" t="n">
+        <v>96</v>
+      </c>
+      <c r="J137" t="n">
+        <v>47</v>
+      </c>
+      <c r="K137" t="n">
+        <v>586</v>
+      </c>
+      <c r="L137" t="n">
+        <v>85</v>
+      </c>
+      <c r="M137" t="n">
+        <v>220</v>
+      </c>
+      <c r="N137" t="n">
+        <v>32</v>
+      </c>
+      <c r="O137" t="n">
+        <v>58.80776092494587</v>
+      </c>
+      <c r="P137" t="n">
+        <v>9.438909800000001</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>42.84402418021789</v>
+      </c>
+      <c r="R137" t="n">
+        <v>2.347091932457786</v>
+      </c>
+      <c r="S137" t="n">
+        <v>19.38534278959811</v>
+      </c>
+      <c r="T137" t="n">
+        <v>24.19043127028297</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T137"/>
+  <dimension ref="A1:T138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9234,6 +9234,70 @@
         <v>24.19043127028297</v>
       </c>
     </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-18</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>278</v>
+      </c>
+      <c r="C138" t="n">
+        <v>299</v>
+      </c>
+      <c r="D138" t="n">
+        <v>39</v>
+      </c>
+      <c r="E138" t="n">
+        <v>162</v>
+      </c>
+      <c r="F138" t="n">
+        <v>172</v>
+      </c>
+      <c r="G138" t="n">
+        <v>89</v>
+      </c>
+      <c r="H138" t="n">
+        <v>18</v>
+      </c>
+      <c r="I138" t="n">
+        <v>100</v>
+      </c>
+      <c r="J138" t="n">
+        <v>37</v>
+      </c>
+      <c r="K138" t="n">
+        <v>586</v>
+      </c>
+      <c r="L138" t="n">
+        <v>78</v>
+      </c>
+      <c r="M138" t="n">
+        <v>219</v>
+      </c>
+      <c r="N138" t="n">
+        <v>37</v>
+      </c>
+      <c r="O138" t="n">
+        <v>55.12878182440031</v>
+      </c>
+      <c r="P138" t="n">
+        <v>10.902634965</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>38.21894999721789</v>
+      </c>
+      <c r="R138" t="n">
+        <v>2.319772942289498</v>
+      </c>
+      <c r="S138" t="n">
+        <v>18.13842482100238</v>
+      </c>
+      <c r="T138" t="n">
+        <v>24.62266582626606</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T138"/>
+  <dimension ref="A1:T139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9298,6 +9298,70 @@
         <v>24.62266582626606</v>
       </c>
     </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-19</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>283</v>
+      </c>
+      <c r="C139" t="n">
+        <v>299</v>
+      </c>
+      <c r="D139" t="n">
+        <v>38</v>
+      </c>
+      <c r="E139" t="n">
+        <v>169</v>
+      </c>
+      <c r="F139" t="n">
+        <v>170</v>
+      </c>
+      <c r="G139" t="n">
+        <v>81</v>
+      </c>
+      <c r="H139" t="n">
+        <v>17</v>
+      </c>
+      <c r="I139" t="n">
+        <v>96</v>
+      </c>
+      <c r="J139" t="n">
+        <v>36</v>
+      </c>
+      <c r="K139" t="n">
+        <v>588</v>
+      </c>
+      <c r="L139" t="n">
+        <v>74</v>
+      </c>
+      <c r="M139" t="n">
+        <v>226</v>
+      </c>
+      <c r="N139" t="n">
+        <v>37</v>
+      </c>
+      <c r="O139" t="n">
+        <v>56.01629647047567</v>
+      </c>
+      <c r="P139" t="n">
+        <v>6.573057276249999</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>38.48632033753368</v>
+      </c>
+      <c r="R139" t="n">
+        <v>2.308420056764428</v>
+      </c>
+      <c r="S139" t="n">
+        <v>17.68953068592058</v>
+      </c>
+      <c r="T139" t="n">
+        <v>24.1631947974811</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T139"/>
+  <dimension ref="A1:T140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9362,6 +9362,70 @@
         <v>24.1631947974811</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-24</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>277</v>
+      </c>
+      <c r="C140" t="n">
+        <v>300</v>
+      </c>
+      <c r="D140" t="n">
+        <v>36</v>
+      </c>
+      <c r="E140" t="n">
+        <v>172</v>
+      </c>
+      <c r="F140" t="n">
+        <v>177</v>
+      </c>
+      <c r="G140" t="n">
+        <v>75</v>
+      </c>
+      <c r="H140" t="n">
+        <v>16</v>
+      </c>
+      <c r="I140" t="n">
+        <v>91</v>
+      </c>
+      <c r="J140" t="n">
+        <v>42</v>
+      </c>
+      <c r="K140" t="n">
+        <v>562</v>
+      </c>
+      <c r="L140" t="n">
+        <v>85</v>
+      </c>
+      <c r="M140" t="n">
+        <v>239</v>
+      </c>
+      <c r="N140" t="n">
+        <v>34</v>
+      </c>
+      <c r="O140" t="n">
+        <v>57.9356088807901</v>
+      </c>
+      <c r="P140" t="n">
+        <v>5.82957336625</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>38.23218231200737</v>
+      </c>
+      <c r="R140" t="n">
+        <v>2.324786324786325</v>
+      </c>
+      <c r="S140" t="n">
+        <v>19.77886977886978</v>
+      </c>
+      <c r="T140" t="n">
+        <v>25.18406815946784</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T140"/>
+  <dimension ref="A1:T141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9426,6 +9426,70 @@
         <v>25.18406815946784</v>
       </c>
     </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-25</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>272</v>
+      </c>
+      <c r="C141" t="n">
+        <v>309</v>
+      </c>
+      <c r="D141" t="n">
+        <v>35</v>
+      </c>
+      <c r="E141" t="n">
+        <v>176</v>
+      </c>
+      <c r="F141" t="n">
+        <v>171</v>
+      </c>
+      <c r="G141" t="n">
+        <v>76</v>
+      </c>
+      <c r="H141" t="n">
+        <v>16</v>
+      </c>
+      <c r="I141" t="n">
+        <v>91</v>
+      </c>
+      <c r="J141" t="n">
+        <v>36</v>
+      </c>
+      <c r="K141" t="n">
+        <v>563</v>
+      </c>
+      <c r="L141" t="n">
+        <v>87</v>
+      </c>
+      <c r="M141" t="n">
+        <v>244</v>
+      </c>
+      <c r="N141" t="n">
+        <v>34</v>
+      </c>
+      <c r="O141" t="n">
+        <v>57.83815643744538</v>
+      </c>
+      <c r="P141" t="n">
+        <v>6.18596093875</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>38.77652303832316</v>
+      </c>
+      <c r="R141" t="n">
+        <v>2.343127962085308</v>
+      </c>
+      <c r="S141" t="n">
+        <v>19.35881627620222</v>
+      </c>
+      <c r="T141" t="n">
+        <v>25.32534705065445</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T141"/>
+  <dimension ref="A1:T142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9490,6 +9490,70 @@
         <v>25.32534705065445</v>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-30</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>276</v>
+      </c>
+      <c r="C142" t="n">
+        <v>304</v>
+      </c>
+      <c r="D142" t="n">
+        <v>38</v>
+      </c>
+      <c r="E142" t="n">
+        <v>172</v>
+      </c>
+      <c r="F142" t="n">
+        <v>169</v>
+      </c>
+      <c r="G142" t="n">
+        <v>74</v>
+      </c>
+      <c r="H142" t="n">
+        <v>17</v>
+      </c>
+      <c r="I142" t="n">
+        <v>88</v>
+      </c>
+      <c r="J142" t="n">
+        <v>33</v>
+      </c>
+      <c r="K142" t="n">
+        <v>579</v>
+      </c>
+      <c r="L142" t="n">
+        <v>82</v>
+      </c>
+      <c r="M142" t="n">
+        <v>233</v>
+      </c>
+      <c r="N142" t="n">
+        <v>35</v>
+      </c>
+      <c r="O142" t="n">
+        <v>57.51698519621372</v>
+      </c>
+      <c r="P142" t="n">
+        <v>6.9006026375</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>43.87427830502429</v>
+      </c>
+      <c r="R142" t="n">
+        <v>2.329523809523809</v>
+      </c>
+      <c r="S142" t="n">
+        <v>18.35985312117503</v>
+      </c>
+      <c r="T142" t="n">
+        <v>24.53932704546969</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T142"/>
+  <dimension ref="A1:T143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9554,6 +9554,70 @@
         <v>24.53932704546969</v>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-04</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>271</v>
+      </c>
+      <c r="C143" t="n">
+        <v>323</v>
+      </c>
+      <c r="D143" t="n">
+        <v>53</v>
+      </c>
+      <c r="E143" t="n">
+        <v>161</v>
+      </c>
+      <c r="F143" t="n">
+        <v>168</v>
+      </c>
+      <c r="G143" t="n">
+        <v>74</v>
+      </c>
+      <c r="H143" t="n">
+        <v>18</v>
+      </c>
+      <c r="I143" t="n">
+        <v>70</v>
+      </c>
+      <c r="J143" t="n">
+        <v>34</v>
+      </c>
+      <c r="K143" t="n">
+        <v>622</v>
+      </c>
+      <c r="L143" t="n">
+        <v>73</v>
+      </c>
+      <c r="M143" t="n">
+        <v>225</v>
+      </c>
+      <c r="N143" t="n">
+        <v>44</v>
+      </c>
+      <c r="O143" t="n">
+        <v>59.35251951749466</v>
+      </c>
+      <c r="P143" t="n">
+        <v>6.751296</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>54.63193910912842</v>
+      </c>
+      <c r="R143" t="n">
+        <v>2.338951310861423</v>
+      </c>
+      <c r="S143" t="n">
+        <v>17.91221826809015</v>
+      </c>
+      <c r="T143" t="n">
+        <v>23.6061894031508</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T143"/>
+  <dimension ref="A1:T144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9618,6 +9618,70 @@
         <v>23.6061894031508</v>
       </c>
     </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>285</v>
+      </c>
+      <c r="C144" t="n">
+        <v>314</v>
+      </c>
+      <c r="D144" t="n">
+        <v>46</v>
+      </c>
+      <c r="E144" t="n">
+        <v>166</v>
+      </c>
+      <c r="F144" t="n">
+        <v>164</v>
+      </c>
+      <c r="G144" t="n">
+        <v>69</v>
+      </c>
+      <c r="H144" t="n">
+        <v>20</v>
+      </c>
+      <c r="I144" t="n">
+        <v>74</v>
+      </c>
+      <c r="J144" t="n">
+        <v>35</v>
+      </c>
+      <c r="K144" t="n">
+        <v>612</v>
+      </c>
+      <c r="L144" t="n">
+        <v>70</v>
+      </c>
+      <c r="M144" t="n">
+        <v>228</v>
+      </c>
+      <c r="N144" t="n">
+        <v>45</v>
+      </c>
+      <c r="O144" t="n">
+        <v>57.13823128405546</v>
+      </c>
+      <c r="P144" t="n">
+        <v>9.526722937500001</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>50.43812726106556</v>
+      </c>
+      <c r="R144" t="n">
+        <v>2.295112781954887</v>
+      </c>
+      <c r="S144" t="n">
+        <v>17.94258373205741</v>
+      </c>
+      <c r="T144" t="n">
+        <v>23.11031375321979</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T144"/>
+  <dimension ref="A1:T145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9682,6 +9682,70 @@
         <v>23.11031375321979</v>
       </c>
     </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>277</v>
+      </c>
+      <c r="C145" t="n">
+        <v>313</v>
+      </c>
+      <c r="D145" t="n">
+        <v>42</v>
+      </c>
+      <c r="E145" t="n">
+        <v>171</v>
+      </c>
+      <c r="F145" t="n">
+        <v>162</v>
+      </c>
+      <c r="G145" t="n">
+        <v>77</v>
+      </c>
+      <c r="H145" t="n">
+        <v>22</v>
+      </c>
+      <c r="I145" t="n">
+        <v>81</v>
+      </c>
+      <c r="J145" t="n">
+        <v>36</v>
+      </c>
+      <c r="K145" t="n">
+        <v>597</v>
+      </c>
+      <c r="L145" t="n">
+        <v>85</v>
+      </c>
+      <c r="M145" t="n">
+        <v>230</v>
+      </c>
+      <c r="N145" t="n">
+        <v>35</v>
+      </c>
+      <c r="O145" t="n">
+        <v>56.90444206356852</v>
+      </c>
+      <c r="P145" t="n">
+        <v>11.52763273</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>48.33983835995445</v>
+      </c>
+      <c r="R145" t="n">
+        <v>2.341165413533834</v>
+      </c>
+      <c r="S145" t="n">
+        <v>18.70503597122302</v>
+      </c>
+      <c r="T145" t="n">
+        <v>24.0241022966551</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Динамика АЛМ.xlsx
+++ b/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T145"/>
+  <dimension ref="A1:T146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9746,6 +9746,70 @@
         <v>24.0241022966551</v>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>278</v>
+      </c>
+      <c r="C146" t="n">
+        <v>310</v>
+      </c>
+      <c r="D146" t="n">
+        <v>46</v>
+      </c>
+      <c r="E146" t="n">
+        <v>159</v>
+      </c>
+      <c r="F146" t="n">
+        <v>161</v>
+      </c>
+      <c r="G146" t="n">
+        <v>78</v>
+      </c>
+      <c r="H146" t="n">
+        <v>23</v>
+      </c>
+      <c r="I146" t="n">
+        <v>76</v>
+      </c>
+      <c r="J146" t="n">
+        <v>38</v>
+      </c>
+      <c r="K146" t="n">
+        <v>609</v>
+      </c>
+      <c r="L146" t="n">
+        <v>86</v>
+      </c>
+      <c r="M146" t="n">
+        <v>214</v>
+      </c>
+      <c r="N146" t="n">
+        <v>32</v>
+      </c>
+      <c r="O146" t="n">
+        <v>56.53153593871873</v>
+      </c>
+      <c r="P146" t="n">
+        <v>11.453917375</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>48.82938601384334</v>
+      </c>
+      <c r="R146" t="n">
+        <v>2.367772511848341</v>
+      </c>
+      <c r="S146" t="n">
+        <v>18.54934601664685</v>
+      </c>
+      <c r="T146" t="n">
+        <v>23.41366042716596</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
